--- a/Project/data/EVOL - Project Data Points.xlsx
+++ b/Project/data/EVOL - Project Data Points.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3920259fbb9d2799/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlwalker2442\Desktop\Evolution\Tasks\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="8_{7C745655-272C-4E0B-A5F1-9388335B0A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC0197C6-B8AC-4975-8730-2A812D2BED47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0638E9B3-1028-49FD-A0B7-4D0E3ABD47A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{83D2AF38-E716-4B16-9C29-8B3A86C07E11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{83D2AF38-E716-4B16-9C29-8B3A86C07E11}"/>
   </bookViews>
   <sheets>
     <sheet name="Horse" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
   <si>
     <t xml:space="preserve">Estimated body mass (kg) </t>
   </si>
@@ -144,75 +144,6 @@
     <t>Equus complicatus</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dinohippus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> small sp. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hypohippus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> large sp. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Orohippus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sp.</t>
-    </r>
-  </si>
-  <si>
     <t>Orohippus pumilus</t>
   </si>
   <si>
@@ -538,6 +469,390 @@
   </si>
   <si>
     <t>Zyzomys argurus</t>
+  </si>
+  <si>
+    <t>Hystrix cristata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolichotis panagonica </t>
+  </si>
+  <si>
+    <t>Microcavia niata</t>
+  </si>
+  <si>
+    <t>Cavia porcellus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agouti paca virgatus </t>
+  </si>
+  <si>
+    <t>Dasyprocta leporina</t>
+  </si>
+  <si>
+    <t>Abrocoma cinerea</t>
+  </si>
+  <si>
+    <t>Abrocoma bennetti</t>
+  </si>
+  <si>
+    <t>Chinchilla laniger</t>
+  </si>
+  <si>
+    <t>Myocastor coypus</t>
+  </si>
+  <si>
+    <t>Ctenomys eremophilus</t>
+  </si>
+  <si>
+    <t>Octodontomys gliroides</t>
+  </si>
+  <si>
+    <t>Tympanoctomys larrerae</t>
+  </si>
+  <si>
+    <t>Octomys mimax</t>
+  </si>
+  <si>
+    <t>Octodon degus</t>
+  </si>
+  <si>
+    <t>Octodon bridgesi</t>
+  </si>
+  <si>
+    <t>Octodon lunatus</t>
+  </si>
+  <si>
+    <t>Aconaemys fuscus</t>
+  </si>
+  <si>
+    <t>Aconaemys sagei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spalacopus cyanus </t>
+  </si>
+  <si>
+    <t>Castor fiber</t>
+  </si>
+  <si>
+    <t>Castor canadensis</t>
+  </si>
+  <si>
+    <t>Ctenodactylus vali</t>
+  </si>
+  <si>
+    <t>Aplodontia rufa</t>
+  </si>
+  <si>
+    <t>Tamias striatus</t>
+  </si>
+  <si>
+    <t>Eutamias speciosus</t>
+  </si>
+  <si>
+    <t>Eutamias minimus</t>
+  </si>
+  <si>
+    <t>Eutamias amoenus</t>
+  </si>
+  <si>
+    <t>Eutamias alpinus</t>
+  </si>
+  <si>
+    <t>Xerus inauris</t>
+  </si>
+  <si>
+    <t>Spermophilus parryii parryii</t>
+  </si>
+  <si>
+    <t>Spermophilus beecheyi</t>
+  </si>
+  <si>
+    <t>Funambulus pennanti</t>
+  </si>
+  <si>
+    <t>Spermophilus lateralis</t>
+  </si>
+  <si>
+    <t>Cynomys ludovicianus</t>
+  </si>
+  <si>
+    <t>Cynomys leucurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamiasciurus hudsonicus </t>
+  </si>
+  <si>
+    <t>Sciurus vulgaris</t>
+  </si>
+  <si>
+    <t>Sciurus carolinensis</t>
+  </si>
+  <si>
+    <t>Pedetes capensis</t>
+  </si>
+  <si>
+    <t>Geomys pinetis</t>
+  </si>
+  <si>
+    <t>Microdipodops pallidus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipodomys deserti </t>
+  </si>
+  <si>
+    <t>Dipodomys merriami</t>
+  </si>
+  <si>
+    <t>Dipodomys ordii</t>
+  </si>
+  <si>
+    <t>Dipodomys spectabilis</t>
+  </si>
+  <si>
+    <t>Dipodomys agilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipodomys microps </t>
+  </si>
+  <si>
+    <t>Chaetodipus formousus</t>
+  </si>
+  <si>
+    <t>Chaetodipus penicillatus</t>
+  </si>
+  <si>
+    <t>Chaetodipus baileyi</t>
+  </si>
+  <si>
+    <t>Perognathus amplus</t>
+  </si>
+  <si>
+    <t>Perognathus longimembris</t>
+  </si>
+  <si>
+    <t>Zapus hudsonius</t>
+  </si>
+  <si>
+    <t>Jaculus jaculus</t>
+  </si>
+  <si>
+    <t>Neotomys ebriosus</t>
+  </si>
+  <si>
+    <t>Oligoryzomys longicaudatus</t>
+  </si>
+  <si>
+    <t>Abrothrix xanthorhinus</t>
+  </si>
+  <si>
+    <t>Abrothrix longipilis</t>
+  </si>
+  <si>
+    <t>Abrothrix olivaceus</t>
+  </si>
+  <si>
+    <t>Abrothrix andinus</t>
+  </si>
+  <si>
+    <t>Bolomys lactens</t>
+  </si>
+  <si>
+    <t>Akodon varius</t>
+  </si>
+  <si>
+    <t>Akodon berlepschii</t>
+  </si>
+  <si>
+    <t>Akodon albiventer</t>
+  </si>
+  <si>
+    <t>Akodon molinae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calomys callosus </t>
+  </si>
+  <si>
+    <t>Calomys lepidus</t>
+  </si>
+  <si>
+    <t>Calomys musculinus</t>
+  </si>
+  <si>
+    <t>Eligmodontia puerulus</t>
+  </si>
+  <si>
+    <t>Eligmodontia typus</t>
+  </si>
+  <si>
+    <t>Eligmodontia moreni</t>
+  </si>
+  <si>
+    <t>Eligmodontia hirtipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligmodontia marica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salinomys delicatus </t>
+  </si>
+  <si>
+    <t>Andalgalomys roigi</t>
+  </si>
+  <si>
+    <t>Andalgalomys olrogi</t>
+  </si>
+  <si>
+    <t>Graomys griseoflavus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graomys domorum </t>
+  </si>
+  <si>
+    <t>Andinomys edax</t>
+  </si>
+  <si>
+    <t>Loxodontoyms pikumche</t>
+  </si>
+  <si>
+    <t>Auliscomys sublimis</t>
+  </si>
+  <si>
+    <t>Auliscomys boliviensis</t>
+  </si>
+  <si>
+    <t>Phyllotis osilae</t>
+  </si>
+  <si>
+    <t>Phyllotis osgoodi</t>
+  </si>
+  <si>
+    <t>Phyllotis xanthopygus</t>
+  </si>
+  <si>
+    <t>Phyllotis chilensis</t>
+  </si>
+  <si>
+    <t>Phyllotis rupestris</t>
+  </si>
+  <si>
+    <t>Phyllotis magister</t>
+  </si>
+  <si>
+    <t>Phyllotis darwini</t>
+  </si>
+  <si>
+    <t>Neotoma mexicana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neotoma albigula </t>
+  </si>
+  <si>
+    <t>Onvchomvs torridus</t>
+  </si>
+  <si>
+    <t>Peromyscus leucopus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peromyscus eremicus </t>
+  </si>
+  <si>
+    <t>Dicrostonyx groenlandicus</t>
+  </si>
+  <si>
+    <t>Neofier alleni</t>
+  </si>
+  <si>
+    <t>Ondatra zibethicus</t>
+  </si>
+  <si>
+    <t>Clethrionomys gapperi</t>
+  </si>
+  <si>
+    <t>Microtus agrestis</t>
+  </si>
+  <si>
+    <t>Microtus pennsylvanicus</t>
+  </si>
+  <si>
+    <t>Mesocricetus auratus</t>
+  </si>
+  <si>
+    <t>Cricetus cricetus</t>
+  </si>
+  <si>
+    <t>Gerbillurus setzeri</t>
+  </si>
+  <si>
+    <t>Gerbillurus paeba</t>
+  </si>
+  <si>
+    <t>Skeetamys calurus</t>
+  </si>
+  <si>
+    <t>Meriones hurrianae</t>
+  </si>
+  <si>
+    <t>Meriones shawi</t>
+  </si>
+  <si>
+    <t>Meriones tristrami</t>
+  </si>
+  <si>
+    <t>Meriones unguiculatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meriones crassus </t>
+  </si>
+  <si>
+    <t>Psammomys obesus</t>
+  </si>
+  <si>
+    <t>Gerbillus dasyurus</t>
+  </si>
+  <si>
+    <t>Gerbillus gerbillus</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Apodemus mystacinus</t>
+  </si>
+  <si>
+    <t>Mus domesticus</t>
+  </si>
+  <si>
+    <t>Thallamys nigricauda</t>
+  </si>
+  <si>
+    <t>Arvicanthis niloticus</t>
+  </si>
+  <si>
+    <t>Otomys angoniensis</t>
+  </si>
+  <si>
+    <t>Otomys sloggetti robertsi</t>
+  </si>
+  <si>
+    <t>Otomys irroratus</t>
+  </si>
+  <si>
+    <t>Otomys unisulcatus</t>
+  </si>
+  <si>
+    <t>Parotomys littledalei</t>
+  </si>
+  <si>
+    <t>Parotomys brantsii</t>
+  </si>
+  <si>
+    <t>Praomys coucha microdon</t>
+  </si>
+  <si>
+    <t>Acomys russatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existance (mya) </t>
   </si>
 </sst>
 </file>
@@ -569,12 +884,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -589,10 +910,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,19 +970,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Evolution of Horse Species Body Mass</a:t>
+              <a:t>Estimated Horse Body Mass (kg) Over Time </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18525678040244969"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -698,7 +1015,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Horse!$B$1</c:f>
+              <c:f>Horse!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -743,297 +1060,251 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
-            <c:strRef>
-              <c:f>Horse!$A$2:$A$45</c:f>
-              <c:strCache>
-                <c:ptCount val="44"/>
+            <c:numRef>
+              <c:f>Horse!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>Hyracotherium angustidens</c:v>
+                  <c:v>14.785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Hyracotherium vaccassiense</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Hyracotherium tapirium</c:v>
+                  <c:v>14.785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Orohippus pumilus</c:v>
+                  <c:v>11.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Orohippus sp.</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Epihippus gracilis</c:v>
+                  <c:v>4.4660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Epihippus uintensis</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mesohippus bairdi</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Mesohippus barbouri</c:v>
+                  <c:v>0.90600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Miohippus quartus</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Parahippus wyomingensis</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Parahippus cognatus</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Parahippus tyleri</c:v>
+                  <c:v>0.39050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Parahippus leonensis</c:v>
+                  <c:v>0.90600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Archaeohippus blackbergi</c:v>
+                  <c:v>1.6845000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Anchitherium clarenci</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Hypohippus large sp. </c:v>
+                  <c:v>14.180999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Megahippus mckennai</c:v>
+                  <c:v>7.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Megahippus matthewi</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Merychippus primus </c:v>
+                  <c:v>53.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Merychippus isonesus</c:v>
+                  <c:v>49.45</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Merychippus insignis</c:v>
+                  <c:v>48.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Hipparion shirleyi</c:v>
+                  <c:v>11.95</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Hipparion tehonense</c:v>
+                  <c:v>14.785</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Neohipparion coloradense</c:v>
+                  <c:v>13.135</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Nannippus minor</c:v>
+                  <c:v>13.135</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Cormohipparion goorisi</c:v>
+                  <c:v>14.785</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Cormohipparion occidentale</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Protohippus simus </c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Pliohippus pernix</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Dinohippus small sp. </c:v>
+                  <c:v>8.1189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Dinohippus leidyanus</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Dinohippus mexicanus</c:v>
+                  <c:v>11.95</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Onohippidium galushai</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>Nannippus peninsulatus</c:v>
+                  <c:v>48.25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Equus simplicidens</c:v>
+                  <c:v>14.785</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Hippidion neogeum</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>Equus scotti</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Equus insulatus</c:v>
+                  <c:v>22.614999999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>Equus complicatus</c:v>
+                  <c:v>13.135</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>Equus quagga</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Equus quagga boehmi</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Equus quagga chapmani</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Equus zebra </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>11.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Horse!$B$2:$B$45</c:f>
+              <c:f>Horse!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>131.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>449.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>495.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>424.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>462.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>26.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>24.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>34.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="22">
+                  <c:v>266.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>194.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>42.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="28">
                   <c:v>47.7</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="29">
                   <c:v>53.8</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>98.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>111.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>86.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>76.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>131.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>194.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>266.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>85.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>122.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>136.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>59.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>101.9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>151.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>161.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>155.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>133.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>229.9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>310.7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>79.900000000000006</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>424.7</c:v>
+                  <c:v>111.3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>462.1</c:v>
+                  <c:v>76.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>495.6</c:v>
+                  <c:v>86.7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>364.7</c:v>
+                  <c:v>98.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>449.6</c:v>
+                  <c:v>155.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>306</c:v>
+                  <c:v>161.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,7 +1312,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-65B3-4B3A-9C68-38CE6F960986}"/>
+              <c16:uniqueId val="{00000000-554A-4893-A4BD-A65D89C20DE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1053,11 +1324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="496630112"/>
-        <c:axId val="496630440"/>
+        <c:axId val="603490816"/>
+        <c:axId val="603494096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="496630112"/>
+        <c:axId val="603490816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,13 +1369,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Millions</a:t>
+                  <a:t>Mya</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Years</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1137,6 +1403,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1173,12 +1440,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496630440"/>
+        <c:crossAx val="603494096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496630440"/>
+        <c:axId val="603494096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,13 +1486,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Body</a:t>
+                  <a:t>Body Mass (kg) </a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Mass (kg)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1295,7 +1557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496630112"/>
+        <c:crossAx val="603490816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1366,31 +1628,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Evolution of Rodent Species Body Mass</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1431,7 +1668,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rodent!$B$1</c:f>
+              <c:f>Rodent!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1466,7 +1703,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -1477,617 +1714,1176 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
-            <c:strRef>
-              <c:f>Rodent!$A$2:$A$101</c:f>
-              <c:strCache>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>Apodemus argenteus </c:v>
-                </c:pt>
+            <c:numRef>
+              <c:f>Rodent!$B$2:$B$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="227"/>
                 <c:pt idx="1">
-                  <c:v>Apodemus agrarius</c:v>
+                  <c:v>4.8905000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Apodemus flavicollis</c:v>
+                  <c:v>4.8905000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Apodemus semotus</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Apodemus speciosus</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Apodemus sylvaticus</c:v>
+                  <c:v>1.806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Micromys minutus </c:v>
+                  <c:v>1.806</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Millardia meltada</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Mus musculus </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Tokudaia osimensis</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Bandicota bengalensis</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Bandicota indica </c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Bandicota savilei</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Berylmys bowersi</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Chiropodomys gliroides</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Leopoldamys sabanus</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Maxomys bartelsii</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Maxomys surifer</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Maxomys whiteheadi</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Mus caroli</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Niviventer cremoriventer</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Rattus argentiventer</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Rattus exulans </c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Rattus losea</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Rattus rattus</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Rattus tiomanicus</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Sundamys muelleri</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Niviventer culturatus</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Batomys salomonseni</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Bullimus bagobus</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Bunomys chrysocomus </c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Bunomys fratrorum </c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Paruromys dominator </c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Rattus hoffmani</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Acomys caharinus</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Aethomys chrysophilus</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Aethomys ineptus</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Aethomys hindei</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Aethomys namaquensis</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Dasymys incomtus </c:v>
+                  <c:v>0.45350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>Grammomys macmillani</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Lophuromys flavopunctatus</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Mastomys coucha</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Mastomys natalensis</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>Mus minutoides </c:v>
+                  <c:v>0.39650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>Praomys jacksoni</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>Rhabdomys pumilio</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>Uranomys ruddi</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>Abeomelomys sevia </c:v>
+                  <c:v>5.8040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>Anisomys imitator</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Chiruromys vates</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>Hyomys goliath</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Leptomys elegans </c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Lorentzimys nouhuysi</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>Mallomys rothschildi</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Mammelomys lanosus</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>Mayermys ellermani</c:v>
+                  <c:v>0.39050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>Melomys leucogaster</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>Melomys platyops</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Melomys rubex </c:v>
+                  <c:v>2.6719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>Melomys rufescens</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Pogonomys loriae</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>Pogonomys macrourus</c:v>
+                  <c:v>0.90600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>Rattus steini</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>Stenomys niobe</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>Uromys anak</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>Xenuromys barbatus </c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>Conilurus penicillatus </c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>Hydromys chrysogaster</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>Leggadina forresti </c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>Leporillus conditor</c:v>
+                  <c:v>0.39050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>Mastacomys fuscus</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>Melomys burtoni</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>Melomys cervinipes</c:v>
+                  <c:v>0.39650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>Mesembriomys gouldii</c:v>
+                  <c:v>0.39650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>Mesembriomys macrurus</c:v>
+                  <c:v>0.39650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>Notomys alexis</c:v>
+                  <c:v>0.39650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>Notomys cervinus</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>Notomys fuscus</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Notomys mitchelli</c:v>
+                  <c:v>0.39650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>Pseudomys apodemoides</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Pseudomys australis</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>Pseudomys delicatulus</c:v>
+                  <c:v>0.39650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>Pseudomys desertor </c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>Pseudomys fumeus</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>Pseudomys gracilicaudatus</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>Pseudomys hermannsburgensis</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>Pseudomys nanus</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>Pseudomys novaehollandiae</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>Pseudomys pilligaensis</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Pseudomys shortridgei</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>Rattus colletti</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Rattus fuscipes</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>Rattus leucopus</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Rattus lutreolus</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Rattus sordidus</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>Rattus tunneyi</c:v>
+                  <c:v>0.39650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>Rattus villosissimus</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Uromys caudimaculatus</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>Zyzomys argurus</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.806</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.357</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.357</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.357</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.357</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.45350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.6719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.0059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rodent!$B$2:$B$101</c:f>
+              <c:f>Rodent!$C$2:$C$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="227"/>
                 <c:pt idx="0">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.28E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1109999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="27">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.43099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.273E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.12118</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.5199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.4300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.6700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="81">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.2899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="85">
                   <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="86">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.45E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.087</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.7100000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.17069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.5100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="128">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="131">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="132">
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9.8320000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.1899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.1158</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.17230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.1023</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.1176</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.2800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
                   <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.28899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.61299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.27400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.43099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.373</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.155</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.4000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="202">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5.7700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="213">
                   <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.13400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="214">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="219">
+                  <c:v>8.6790000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.879</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="224">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.19400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.11700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.13700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.34200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.14299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.1999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.24199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.8999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.1999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.50800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.087</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.123</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.104</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.9000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.9000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.879</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.184</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.745</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.187</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.11700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.13900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.54500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.34100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.8999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.154</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.16300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.158</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.24299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.20699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="225">
+                  <c:v>1.9300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
                   <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2096,7 +2892,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F71-4474-BC77-9492C49337E2}"/>
+              <c16:uniqueId val="{00000000-5E77-4DB5-A2DE-8980C87D4761}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2108,13 +2904,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="584607088"/>
-        <c:axId val="584611024"/>
+        <c:axId val="603493112"/>
+        <c:axId val="603491800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="584607088"/>
+        <c:axId val="603493112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2132,177 +2929,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Millions of Years</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="584611024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="584611024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Body Mass (kg)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2340,7 +2966,70 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584607088"/>
+        <c:crossAx val="603491800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="603491800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603493112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3513,22 +4202,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7CBF94-97C0-44B5-A063-55AEFCD48446}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805B0123-F1A5-4186-BFD5-E3C816BEA233}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3554,22 +4243,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AC3085-F757-4399-8D66-A5F106E14AFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459F5939-08C3-456A-98B0-47C1CECB779B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3887,376 +4576,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2407B6-1B4D-4B6D-8F4D-678BFD2E8125}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>14.785</v>
+      </c>
+      <c r="C2">
+        <v>131.69999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>18.2</v>
+      </c>
+      <c r="C3">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>14.785</v>
+      </c>
+      <c r="C4">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>11.95</v>
+      </c>
+      <c r="C5">
+        <v>151.30000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>7.6</v>
+      </c>
+      <c r="C6">
+        <v>229.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>4.4660000000000002</v>
+      </c>
+      <c r="C7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C8">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="C10">
+        <v>449.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C11">
+        <v>364.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C12">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="C15">
+        <v>495.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.6845000000000001</v>
+      </c>
+      <c r="C16">
+        <v>424.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C17">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5">
+        <v>14.180999999999999</v>
+      </c>
+      <c r="C18">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7.8159999999999998</v>
+      </c>
+      <c r="C19">
+        <v>122.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C20">
+        <v>462.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B21" s="5">
+        <v>53.05</v>
+      </c>
+      <c r="C21">
         <v>26.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>49.45</v>
+      </c>
+      <c r="C22">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B23" s="5">
+        <v>48.25</v>
+      </c>
+      <c r="C23">
         <v>24.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>32.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5">
+        <v>11.95</v>
+      </c>
+      <c r="C24">
+        <v>266.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5">
+        <v>14.785</v>
+      </c>
+      <c r="C25">
+        <v>194.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5">
+        <v>13.135</v>
+      </c>
+      <c r="C26">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5">
+        <v>13.135</v>
+      </c>
+      <c r="C27">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5">
+        <v>14.785</v>
+      </c>
+      <c r="C28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="C29">
         <v>42.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
         <v>47.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
         <v>53.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>98.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>111.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>86.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>76.599999999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>131.69999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>194.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>266.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>85.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>122.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="5">
+        <v>8.1189999999999998</v>
+      </c>
+      <c r="C32">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="C33">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26">
+      <c r="B34" s="5">
+        <v>11.95</v>
+      </c>
+      <c r="C34">
         <v>136.1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28">
-        <v>101.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29">
-        <v>151.30000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30">
-        <v>161.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31">
-        <v>155.30000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>133.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>229.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="C35">
         <v>310.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5">
+        <v>48.25</v>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>424.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5">
+        <v>14.785</v>
+      </c>
+      <c r="C37">
+        <v>111.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38">
-        <v>462.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5">
+        <v>18.2</v>
+      </c>
+      <c r="C38">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39">
-        <v>495.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B39" s="5">
+        <v>18.2</v>
+      </c>
+      <c r="C39">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40">
-        <v>364.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B40" s="5">
+        <v>22.614999999999998</v>
+      </c>
+      <c r="C40">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41">
-        <v>449.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B41" s="5">
+        <v>13.135</v>
+      </c>
+      <c r="C41">
+        <v>155.30000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>306</v>
+        <v>25</v>
+      </c>
+      <c r="B42" s="5">
+        <v>11.95</v>
+      </c>
+      <c r="C42">
+        <v>161.5</v>
       </c>
     </row>
   </sheetData>
@@ -4268,931 +5049,2560 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F0FB5C-241B-4F12-996A-4FD098A2447D}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <f>52/1000</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3">
+        <v>4.8905000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4">
+        <v>4.8905000000000003</v>
+      </c>
+      <c r="C4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5">
+        <v>1.806</v>
+      </c>
+      <c r="C5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8">
+        <v>1.806</v>
+      </c>
+      <c r="C8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C9">
+        <f>27/1000</f>
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C10">
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C13">
+        <f>85/1000</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C14">
+        <f>143/1000</f>
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C15">
+        <f>140/1000</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C16">
+        <f>72/1000</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.6269999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18">
+        <v>1.294</v>
+      </c>
+      <c r="C18">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19">
+        <v>1.294</v>
+      </c>
+      <c r="C19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
+        <v>3.1109999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21">
+        <v>1.294</v>
+      </c>
+      <c r="C21">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C24">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <f>508/1000</f>
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
+        <f>35/1000</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C28">
         <f>21/1000</f>
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <f>35/1000</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C29">
         <f>29/1000</f>
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C30">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C31">
         <f>28/1000</f>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C32">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1.294</v>
+      </c>
+      <c r="C33">
         <f>23/1000</f>
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1.294</v>
+      </c>
+      <c r="C34">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3">
+        <f>289/1000</f>
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="C38">
+        <f>613/1000</f>
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
+        <f>274/1000</f>
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3">
+        <f>194/1000</f>
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <f>431/1000</f>
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42">
+        <v>1.294</v>
+      </c>
+      <c r="C42">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3">
+        <f>380/1000</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3">
+        <f>117/1000</f>
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3">
+        <f>137/1000</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C46">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47">
+        <v>1.294</v>
+      </c>
+      <c r="C47">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C48">
+        <v>1.273E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49">
+        <v>0.9</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50">
+        <v>5.8040000000000003</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C51">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3">
+        <v>2.5700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53">
+        <v>0.9</v>
+      </c>
+      <c r="C53">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <f>(2.588+0.012)/2</f>
+        <v>1.3</v>
+      </c>
+      <c r="C56">
+        <f>22/1000</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3">
+        <f>48/1000</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C58">
+        <v>2.4799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59">
+        <v>1.3</v>
+      </c>
+      <c r="C59">
+        <f>184/1000</f>
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60">
+        <f>(5.332+0.012)/2</f>
+        <v>2.6719999999999997</v>
+      </c>
+      <c r="C60">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62">
+        <f>3.6/2</f>
+        <v>1.8</v>
+      </c>
+      <c r="C62">
+        <v>0.12118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64">
+        <f>(1.8+0.012)/2</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="C64">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C65">
+        <f>242/1000</f>
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C66">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68">
+        <f>(0.126+0.012)/2</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C68">
+        <v>5.4300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69">
+        <f>(1.8+0.3)/2</f>
+        <v>1.05</v>
+      </c>
+      <c r="C69">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C70">
+        <v>3.6700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71">
+        <f>0.126/2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="C71">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C72">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74">
+        <f>6.8/2</f>
+        <v>3.4</v>
+      </c>
+      <c r="C74">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C75">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C76">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C77">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C78">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C79">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C82">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3">
+        <v>9.2899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85">
+        <f>(0.3+0.012)/2</f>
+        <v>0.156</v>
+      </c>
+      <c r="C85">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86">
+        <f>(0.126+0.012)/2</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C86">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C87">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88">
+        <f>5.332/2</f>
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C88">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C89">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C90">
+        <f>40/1000</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C91">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C93">
+        <f>745/1000</f>
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3">
+        <f>1000/1000</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3">
+        <f>30/1000</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C98">
+        <f>373/1000</f>
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99">
+        <f>(2.588+0.012)/2</f>
+        <v>1.3</v>
+      </c>
+      <c r="C99">
+        <f>187/1000</f>
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3">
+        <f>69/1000</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C101">
+        <f>60/1000</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3">
+        <f>16/1000</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3">
+        <f>1087/1000</f>
+        <v>1.087</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3">
+        <f>123/1000</f>
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C106">
+        <f>117/1000</f>
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108">
+        <f>(3.6+0.012)/2</f>
+        <v>1.806</v>
+      </c>
+      <c r="C108">
+        <f>59/1000</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3">
+        <f>93/1000</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3">
+        <f>155/1000</f>
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3">
+        <f>64/1000</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3">
+        <f>18/1000</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C113">
+        <f>78/1000</f>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C114">
+        <f>139/1000</f>
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C115">
+        <f>104/1000</f>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C116">
+        <f>90/1000</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C117">
+        <f>50/1000</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C118">
+        <f>68/1000</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119">
+        <f>(2.588+0.126)/2</f>
+        <v>1.357</v>
+      </c>
+      <c r="C119">
+        <v>6.7100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B120">
+        <v>1.357</v>
+      </c>
+      <c r="C120">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121">
+        <v>1.357</v>
+      </c>
+      <c r="C121">
+        <v>0.17069999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B122">
+        <v>1.357</v>
+      </c>
+      <c r="C122">
+        <v>5.5100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B123">
+        <f>(0.781+0.126)/2</f>
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="C123">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C124">
+        <f>545/1000</f>
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3">
+        <f>341/1000</f>
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126">
+        <f>(5.332+0.012)/2</f>
+        <v>2.6719999999999997</v>
+      </c>
+      <c r="C126">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127">
+        <f>(4+0.012)/2</f>
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="C127">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B128">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C128">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C129">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C130">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131">
+        <f>0.3/2</f>
+        <v>0.15</v>
+      </c>
+      <c r="C131">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3">
         <f>72/1000</f>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B133">
+        <f>5.332/2</f>
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C133">
         <f>15/1000</f>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C134">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B135">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C135">
+        <f>8/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136">
+        <f>0.126/2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="C136">
+        <f>15/1000</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B139">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C139">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B140">
+        <f>(1.8+0.012)/2</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="C140">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141">
+        <f>(0.126+0.012)/2</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C141">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B142">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C142">
+        <f>75/1000</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B143">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C143">
+        <f>103/1000</f>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B144">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C144">
+        <f>30/1000</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C145">
+        <f>37/1000</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C146">
+        <f>45/1000</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C147">
+        <f>45/1000</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3">
+        <v>9.8320000000000005E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B153">
+        <f>(0.126+0.012)/2</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C153">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B154">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C154">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B156">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C156">
+        <v>0.1158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B157">
+        <v>1.294</v>
+      </c>
+      <c r="C157">
+        <v>0.17230000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B158">
+        <v>1.294</v>
+      </c>
+      <c r="C158">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B159">
+        <v>1.294</v>
+      </c>
+      <c r="C159">
+        <v>0.1176</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B160">
+        <f>(0.126+0.012)/2</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C160">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B161">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C161">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3">
+        <f>342/1000</f>
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163">
+        <f>1.806/2</f>
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B164">
+        <f>13.6/2</f>
+        <v>6.8</v>
+      </c>
+      <c r="C164">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B166">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C166">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B167">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C167">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B168">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C168">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B169">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C169">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B170">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C170">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B171">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C171">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B172">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C172">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B173">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C173">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3">
+        <f>105/1000</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3">
+        <f>49/1000</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B177">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C177">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B178">
+        <v>1.294</v>
+      </c>
+      <c r="C178">
+        <f>40/1000</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B180">
+        <v>1.294</v>
+      </c>
+      <c r="C180">
+        <f>25/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181">
+        <v>1.294</v>
+      </c>
+      <c r="C181">
+        <f>59/1000</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B182">
+        <v>1.294</v>
+      </c>
+      <c r="C182">
+        <f>8/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B183">
+        <v>1.294</v>
+      </c>
+      <c r="C183">
+        <f>39/1000</f>
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B184">
+        <v>1.294</v>
+      </c>
+      <c r="C184">
+        <f>71/1000</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B185">
+        <v>1.294</v>
+      </c>
+      <c r="C185">
+        <f>105/1000</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B186">
+        <v>1.294</v>
+      </c>
+      <c r="C186">
+        <f>15/1000</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B187">
+        <v>1.294</v>
+      </c>
+      <c r="C187">
+        <f>74/1000</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B188">
+        <v>1.294</v>
+      </c>
+      <c r="C188">
+        <f>19/1000</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B189">
+        <v>1.294</v>
+      </c>
+      <c r="C189">
+        <f>11/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B190">
+        <v>1.294</v>
+      </c>
+      <c r="C190">
+        <f>78/1000</f>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B191">
+        <f>3.6/2</f>
+        <v>1.8</v>
+      </c>
+      <c r="C191">
+        <f>217/1000</f>
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B192">
+        <v>1.8</v>
+      </c>
+      <c r="C192">
+        <f>154/1000</f>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B193">
+        <v>1.8</v>
+      </c>
+      <c r="C193">
+        <f>49/1000</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B194">
+        <v>1.8</v>
+      </c>
+      <c r="C194">
+        <f>110/1000</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B195">
+        <v>1.8</v>
+      </c>
+      <c r="C195">
+        <f>140/1000</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B196">
+        <v>1.8</v>
+      </c>
+      <c r="C196">
+        <f>170/1000</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B197">
+        <v>1.8</v>
+      </c>
+      <c r="C197">
+        <f>110/1000</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B198">
+        <v>1.8</v>
+      </c>
+      <c r="C198">
+        <f>163/1000</f>
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B199">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C199">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B200">
+        <f>0.126/2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="C200">
+        <f>134/1000</f>
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B201">
+        <v>1.8</v>
+      </c>
+      <c r="C201">
+        <f>158/1000</f>
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B202">
+        <v>1.8</v>
+      </c>
+      <c r="C202">
+        <f>93/1000</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B203">
+        <v>1.8</v>
+      </c>
+      <c r="C203">
         <f>89/1000</f>
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12">
-        <f>289/1000</f>
-        <v>0.28899999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13">
-        <f>613/1000</f>
-        <v>0.61299999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14">
-        <f>274/1000</f>
-        <v>0.27400000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15">
-        <f>431/1000</f>
-        <v>0.43099999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16">
-        <f>22/1000</f>
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17">
-        <f>373/1000</f>
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18">
-        <f>93/1000</f>
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19">
-        <f>155/1000</f>
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20">
-        <f>64/1000</f>
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21">
-        <f>15/1000</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22">
-        <f>75/1000</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23">
-        <f>217/1000</f>
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B204">
+        <v>1.8</v>
+      </c>
+      <c r="C204">
+        <f>243/1000</f>
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B205">
+        <v>1.8</v>
+      </c>
+      <c r="C205">
+        <f>207/1000</f>
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B206">
+        <f>5.332/2</f>
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C206">
+        <f>55/1000</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B208">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C208">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B209">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C209">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3">
+        <v>5.7700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B212">
+        <f>(0.3+0.012)/2</f>
+        <v>0.156</v>
+      </c>
+      <c r="C212">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B213">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C213">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B214">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C214">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3">
         <f>49/1000</f>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B25">
-        <f>110/1000</f>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26">
-        <f>134/1000</f>
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3">
+        <f>400/1000</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B217">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C217">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B218">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C218">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B220" s="5">
+        <f>(2.588+0.012)/2</f>
+        <v>1.3</v>
+      </c>
+      <c r="C220" s="5">
         <f>89/1000</f>
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28">
-        <f>400/1000</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29">
-        <f>103/1000</f>
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30">
-        <f>194/1000</f>
-        <v>0.19400000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31">
-        <f>380/1000</f>
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32">
-        <f>117/1000</f>
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33">
-        <f>137/1000</f>
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34">
-        <f>342/1000</f>
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35">
-        <f>140/1000</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36">
-        <f>27/1000</f>
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37">
-        <f>85/1000</f>
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38">
-        <f>140/1000</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39">
-        <f>143/1000</f>
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40">
-        <f>72/1000</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41">
-        <f>242/1000</f>
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3">
+        <v>8.6790000000000006E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B222">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C222">
         <f>40/1000</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43">
-        <f>60/1000</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44">
-        <f>70/1000</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45">
-        <f>59/1000</f>
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46">
-        <f>8/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47">
-        <f>40/1000</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48">
-        <f>55/1000</f>
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49">
-        <f>40/1000</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50">
-        <f>52/1000</f>
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51">
-        <f>508/1000</f>
-        <v>0.50800000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52">
-        <f>48/1000</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53">
-        <f>1000/1000</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54">
-        <f>69/1000</f>
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55">
-        <f>16/1000</f>
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56">
-        <f>1087/1000</f>
-        <v>1.087</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57">
-        <f>123/1000</f>
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58">
-        <f>18/1000</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59">
-        <f>104/1000</f>
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60">
-        <f>90/1000</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61">
-        <f>50/1000</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62">
-        <f>68/1000</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63">
-        <f>105/1000</f>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B64">
-        <f>49/1000</f>
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65">
-        <f>93/1000</f>
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66">
-        <f>49/1000</f>
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67">
+      <c r="B223">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C223">
         <f>879/1000</f>
         <v>0.879</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B224">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C224">
+        <f>820/1000</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3">
         <f>950/1000</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69">
-        <f>184/1000</f>
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70">
-        <f>745/1000</f>
-        <v>0.745</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71">
-        <f>30/1000</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72">
-        <f>187/1000</f>
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73">
-        <f>117/1000</f>
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74">
-        <f>78/1000</f>
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75">
-        <f>139/1000</f>
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76">
-        <f>545/1000</f>
-        <v>0.54500000000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77">
-        <f>341/1000</f>
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78">
-        <f>30/1000</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79">
-        <f>37/1000</f>
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B227">
+        <f>(0.3+0.012)/2</f>
+        <v>0.156</v>
+      </c>
+      <c r="C227">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B228">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C228">
         <f>45/1000</f>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B81">
-        <f>45/1000</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82">
-        <f>25/1000</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83">
-        <f>59/1000</f>
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84">
-        <f>8/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85">
-        <f>39/1000</f>
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86">
-        <f>71/1000</f>
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B87">
-        <f>105/1000</f>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88">
-        <f>15/1000</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B89">
-        <f>74/1000</f>
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90">
-        <f>19/1000</f>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91">
-        <f>11/1000</f>
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92">
-        <f>78/1000</f>
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B93">
-        <f>154/1000</f>
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B94">
-        <f>110/1000</f>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B95">
-        <f>170/1000</f>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96">
-        <f>163/1000</f>
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B97">
-        <f>158/1000</f>
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98">
-        <f>243/1000</f>
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B99">
-        <f>207/1000</f>
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B100">
-        <f>820/1000</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B101">
-        <f>45/1000</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B65 B48" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/data/EVOL - Project Data Points.xlsx
+++ b/Project/data/EVOL - Project Data Points.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlwalker2442\Desktop\Evolution\Tasks\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0638E9B3-1028-49FD-A0B7-4D0E3ABD47A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA8CF0D-49D0-4790-8813-15741A946D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{83D2AF38-E716-4B16-9C29-8B3A86C07E11}"/>
+    <workbookView xWindow="11145" yWindow="315" windowWidth="9345" windowHeight="10575" activeTab="1" xr2:uid="{83D2AF38-E716-4B16-9C29-8B3A86C07E11}"/>
   </bookViews>
   <sheets>
     <sheet name="Horse" sheetId="1" r:id="rId1"/>
     <sheet name="Rodent" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="278">
   <si>
     <t xml:space="preserve">Estimated body mass (kg) </t>
   </si>
@@ -339,9 +340,6 @@
     <t>Mammelomys lanosus</t>
   </si>
   <si>
-    <t>Mayermys ellermani</t>
-  </si>
-  <si>
     <t>Melomys leucogaster</t>
   </si>
   <si>
@@ -507,9 +505,6 @@
     <t>Octodontomys gliroides</t>
   </si>
   <si>
-    <t>Tympanoctomys larrerae</t>
-  </si>
-  <si>
     <t>Octomys mimax</t>
   </si>
   <si>
@@ -525,9 +520,6 @@
     <t>Aconaemys fuscus</t>
   </si>
   <si>
-    <t>Aconaemys sagei</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spalacopus cyanus </t>
   </si>
   <si>
@@ -537,27 +529,15 @@
     <t>Castor canadensis</t>
   </si>
   <si>
-    <t>Ctenodactylus vali</t>
-  </si>
-  <si>
     <t>Aplodontia rufa</t>
   </si>
   <si>
     <t>Tamias striatus</t>
   </si>
   <si>
-    <t>Eutamias speciosus</t>
-  </si>
-  <si>
     <t>Eutamias minimus</t>
   </si>
   <si>
-    <t>Eutamias amoenus</t>
-  </si>
-  <si>
-    <t>Eutamias alpinus</t>
-  </si>
-  <si>
     <t>Xerus inauris</t>
   </si>
   <si>
@@ -693,9 +673,6 @@
     <t xml:space="preserve">Eligmodontia marica </t>
   </si>
   <si>
-    <t xml:space="preserve">Salinomys delicatus </t>
-  </si>
-  <si>
     <t>Andalgalomys roigi</t>
   </si>
   <si>
@@ -711,9 +688,6 @@
     <t>Andinomys edax</t>
   </si>
   <si>
-    <t>Loxodontoyms pikumche</t>
-  </si>
-  <si>
     <t>Auliscomys sublimis</t>
   </si>
   <si>
@@ -747,9 +721,6 @@
     <t xml:space="preserve">Neotoma albigula </t>
   </si>
   <si>
-    <t>Onvchomvs torridus</t>
-  </si>
-  <si>
     <t>Peromyscus leucopus</t>
   </si>
   <si>
@@ -759,9 +730,6 @@
     <t>Dicrostonyx groenlandicus</t>
   </si>
   <si>
-    <t>Neofier alleni</t>
-  </si>
-  <si>
     <t>Ondatra zibethicus</t>
   </si>
   <si>
@@ -786,9 +754,6 @@
     <t>Gerbillurus paeba</t>
   </si>
   <si>
-    <t>Skeetamys calurus</t>
-  </si>
-  <si>
     <t>Meriones hurrianae</t>
   </si>
   <si>
@@ -822,9 +787,6 @@
     <t>Mus domesticus</t>
   </si>
   <si>
-    <t>Thallamys nigricauda</t>
-  </si>
-  <si>
     <t>Arvicanthis niloticus</t>
   </si>
   <si>
@@ -853,6 +815,80 @@
   </si>
   <si>
     <t xml:space="preserve">Existance (mya) </t>
+  </si>
+  <si>
+    <t>Beamys major</t>
+  </si>
+  <si>
+    <t>Eocene = 44.95 mya</t>
+  </si>
+  <si>
+    <t>Oligocene = 28.45 mya</t>
+  </si>
+  <si>
+    <t>Oligo - Miocene = 21.3 mya</t>
+  </si>
+  <si>
+    <t>Exists = 0 mya</t>
+  </si>
+  <si>
+    <t>Equus burchelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outliers </t>
+  </si>
+  <si>
+    <t>Castoridae</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Family</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Caviidae</t>
+  </si>
+  <si>
+    <t>Hystiicidae</t>
+  </si>
+  <si>
+    <t>Echimyidae</t>
+  </si>
+  <si>
+    <t>spiny rat</t>
+  </si>
+  <si>
+    <t>crested porcupine</t>
+  </si>
+  <si>
+    <t>patagonian mara</t>
+  </si>
+  <si>
+    <t>eurasian beaver</t>
+  </si>
+  <si>
+    <t>american beaver</t>
+  </si>
+  <si>
+    <t>Common Name</t>
   </si>
 </sst>
 </file>
@@ -910,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -918,6 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,15 +1094,51 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9794400699912515E-3"/>
+                  <c:y val="-0.471411854768154"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Horse!$B$2:$B$42</c:f>
+              <c:f>Horse!$B$2:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>14.785</c:v>
                 </c:pt>
@@ -1087,91 +1160,109 @@
                 <c:pt idx="6">
                   <c:v>38.799999999999997</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.95</c:v>
+                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.90600000000000003</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1.3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.39050000000000001</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.90600000000000003</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1.6845000000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1.3</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>14.180999999999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>7.8159999999999998</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>2.6659999999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>53.05</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>49.45</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>48.25</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>11.95</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>14.785</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.135</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13.135</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>13.135</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>14.785</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>33.6</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.45</c:v>
+                </c:pt>
                 <c:pt idx="30">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>8.1189999999999998</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>3.3530000000000002</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>11.95</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>7.6</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>48.25</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>14.785</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>22.614999999999998</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>13.135</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>11.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -1179,10 +1270,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Horse!$C$2:$C$42</c:f>
+              <c:f>Horse!$C$2:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>131.69999999999999</c:v>
                 </c:pt>
@@ -1208,102 +1299,105 @@
                   <c:v>32.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>449.6</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>364.7</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>280</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>255</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>320</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>495.6</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>424.7</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>306</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>77.5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>122.8</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>462.1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>26.6</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>34.9</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>24.9</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>266.2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>194.9</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>100.6</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>85.2</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>42.2</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>47.7</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>53.8</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>59.6</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>79.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>136.1</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>310.7</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>111.3</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>76.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>86.7</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>98.4</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>155.30000000000001</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>161.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1331,6 +1425,7 @@
         <c:axId val="603490816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="55"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1448,6 +1543,7 @@
         <c:axId val="603494096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1628,6 +1724,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Estimated Rodent Body Mass (kg) Over Time </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1710,15 +1831,54 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.049626698217127E-2"/>
+                  <c:y val="-0.40041390571603636"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Rodent!$B$2:$B$228</c:f>
+              <c:f>Rodent!$B$2:$B$216</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="215"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>4.8905000000000003</c:v>
                 </c:pt>
@@ -1728,6 +1888,12 @@
                 <c:pt idx="3">
                   <c:v>1.806</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>1.806</c:v>
                 </c:pt>
@@ -1737,6 +1903,12 @@
                 <c:pt idx="8">
                   <c:v>2.6659999999999999</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>2.6659999999999999</c:v>
                 </c:pt>
@@ -1747,53 +1919,95 @@
                   <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6659999999999999</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3E-2</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.294</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2.6659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.6659999999999999</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.294</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.45350000000000001</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1.294</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="44">
                   <c:v>0.39650000000000002</c:v>
                 </c:pt>
@@ -1812,12 +2026,24 @@
                 <c:pt idx="49">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="51">
                   <c:v>0.9</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="54">
                   <c:v>1.3</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="56">
                   <c:v>0.39050000000000001</c:v>
                 </c:pt>
@@ -1827,38 +2053,47 @@
                 <c:pt idx="58">
                   <c:v>2.6719999999999997</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8</c:v>
+                </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.8</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.90600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.90600000000000003</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.294</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.39050000000000001</c:v>
-                </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.4</c:v>
+                  <c:v>0.39650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.39650000000000002</c:v>
@@ -1875,200 +2110,296 @@
                 <c:pt idx="77">
                   <c:v>0.39650000000000002</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.156</c:v>
+                </c:pt>
                 <c:pt idx="80">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>0.39650000000000002</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.156</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.6659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.6659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.294</c:v>
-                </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="93">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.806</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.294</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.39650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="106">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.39650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.806</c:v>
+                <c:pt idx="107">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>1.357</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>1.357</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>1.357</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>1.357</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.45350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.357</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.357</c:v>
+                  <c:v>2.6719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.357</c:v>
+                  <c:v>2.0059999999999998</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.357</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.45350000000000001</c:v>
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="122">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="124">
-                  <c:v>2.6719999999999997</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2.0059999999999998</c:v>
-                </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="136">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="146">
                   <c:v>1.294</c:v>
                 </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.39050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2.6659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2.6659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2.6659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>6.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.39050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.90600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="147">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="150">
                   <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.39650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.39650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="158">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>1.294</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="168">
                   <c:v>1.294</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>1.294</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="171">
                   <c:v>1.294</c:v>
                 </c:pt>
-                <c:pt idx="158">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.90300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.39050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.39050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.39050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.39050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.39050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.39050000000000001</c:v>
+                <c:pt idx="172">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>1.294</c:v>
@@ -2076,6 +2407,9 @@
                 <c:pt idx="176">
                   <c:v>1.294</c:v>
                 </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.294</c:v>
+                </c:pt>
                 <c:pt idx="178">
                   <c:v>1.294</c:v>
                 </c:pt>
@@ -2086,34 +2420,34 @@
                   <c:v>1.294</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.294</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.294</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.294</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.294</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.294</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.294</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.294</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.294</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1.8</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.8</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>1.8</c:v>
@@ -2131,69 +2465,60 @@
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1.8</c:v>
+                  <c:v>2.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="197">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.39050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="208">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="198">
-                  <c:v>6.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>2.6659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1.294</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.39650000000000002</c:v>
+                <c:pt idx="209">
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="210">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
                   <c:v>0.156</c:v>
                 </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.39650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.39650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.39050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.156</c:v>
-                </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="214">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2201,10 +2526,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Rodent!$C$2:$C$228</c:f>
+              <c:f>Rodent!$C$2:$C$216</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="215"/>
                 <c:pt idx="0">
                   <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
@@ -2236,91 +2561,91 @@
                   <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.106</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>0.14299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14299999999999999</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1999999999999995E-2</c:v>
+                  <c:v>3.6269999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6269999999999998</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>3.1109999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1109999999999999E-2</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.5000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.50800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.78500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.6400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.122</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>0.28899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.28899999999999998</c:v>
+                  <c:v>0.61299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.61299999999999999</c:v>
+                  <c:v>0.27400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.27400000000000002</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.19400000000000001</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.43099999999999999</c:v>
@@ -2383,507 +2708,471 @@
                   <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.18</c:v>
+                  <c:v>0.12118</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.12118</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>0.97199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.97199999999999998</c:v>
+                  <c:v>0.24199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.24199999999999999</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.6</c:v>
+                  <c:v>5.5199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.5199999999999999E-2</c:v>
+                  <c:v>5.4300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.4300000000000001E-2</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.105</c:v>
+                  <c:v>3.6700000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.6700000000000003E-2</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.3999999999999997E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12.5</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.4500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.4500000000000001E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.2899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.45E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1.6E-2</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="97">
+                  <c:v>1.087</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.7100000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.17069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.5100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.8320000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.1158</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.17230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.1023</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.1176</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.2800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
                   <c:v>3.9E-2</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9.2899999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="174">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5.45E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.745</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.373</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.187</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.087</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.123</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.11700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>5.8999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.155</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>6.4000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.13900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.104</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6.7100000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.17069999999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>5.5100000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>9.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.54500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.34100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.18099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>7.1999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1.1900000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>9.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>9.8000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>4.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>4.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.16300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.17100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.153</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>9.8320000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2.1899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.1158</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.17230000000000001</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.1023</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.1176</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.107</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.34200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>5.7999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2.2800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2.98E-2</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.113</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>6.4000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>5.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>8.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>4.9000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2.18E-2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>5.8999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.154</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>4.9000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.16300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.13400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.158</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>8.8999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.24299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.20699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.67300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>5.7700000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="209">
-                  <c:v>9.9000000000000005E-2</c:v>
+                  <c:v>0.879</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.46800000000000003</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.95799999999999996</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>1.9300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.109</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.20699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>8.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>8.8999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>8.6790000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.879</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>1.9300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="226">
                   <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2929,6 +3218,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mya</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2974,7 +3318,7 @@
         <c:axId val="603491800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:max val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2992,6 +3336,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Body Mass (kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4201,16 +4600,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4242,16 +4641,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4576,30 +4975,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2407B6-1B4D-4B6D-8F4D-678BFD2E8125}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="3" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4609,8 +5009,11 @@
       <c r="C2">
         <v>131.69999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4620,8 +5023,11 @@
       <c r="C3">
         <v>43.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4631,8 +5037,11 @@
       <c r="C4">
         <v>101.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4642,8 +5051,11 @@
       <c r="C5">
         <v>151.30000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4654,7 +5066,7 @@
         <v>229.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4665,7 +5077,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4676,367 +5088,391 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+      <c r="B9" s="5">
+        <v>44.95</v>
+      </c>
+      <c r="C9" s="5">
         <v>32.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0.90600000000000003</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>449.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>1.3</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>364.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5">
         <v>0.39050000000000001</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
         <v>0.90600000000000003</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>495.6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5">
         <v>1.6845000000000001</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>424.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B18" s="5">
         <v>1.3</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>306</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="L18" s="7">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <v>14.180999999999999</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>77.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B20" s="5">
         <v>7.8159999999999998</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>122.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <v>2.6659999999999999</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>462.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B22" s="5">
         <v>53.05</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>26.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="5">
         <v>49.45</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>34.9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B24" s="5">
         <v>48.25</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>24.9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="5">
         <v>11.95</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>266.2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B26" s="5">
         <v>14.785</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>194.9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B26" s="5">
-        <v>13.135</v>
-      </c>
-      <c r="C26">
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B27" s="5">
         <v>13.135</v>
       </c>
       <c r="C27">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5">
+        <v>13.135</v>
+      </c>
+      <c r="C28">
         <v>85.2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B29" s="5">
         <v>14.785</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B30" s="5">
         <v>33.6</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>42.2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3">
+      <c r="B31" s="5">
+        <v>28.45</v>
+      </c>
+      <c r="C31" s="5">
         <v>47.7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3">
+      <c r="B32" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="C32" s="5">
         <v>53.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="5">
-        <v>8.1189999999999998</v>
-      </c>
-      <c r="C32">
-        <v>59.6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B33" s="5">
-        <v>3.3530000000000002</v>
+        <v>8.1189999999999998</v>
       </c>
       <c r="C33">
-        <v>79.900000000000006</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5">
-        <v>11.95</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="C34">
-        <v>136.1</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B35" s="5">
-        <v>7.6</v>
+        <v>11.95</v>
       </c>
       <c r="C35">
-        <v>310.7</v>
+        <v>136.1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5">
-        <v>48.25</v>
+        <v>7.6</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B37" s="5">
-        <v>14.785</v>
+        <v>48.25</v>
       </c>
       <c r="C37">
-        <v>111.3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" s="5">
-        <v>18.2</v>
+        <v>14.785</v>
       </c>
       <c r="C38">
-        <v>76.599999999999994</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" s="5">
         <v>18.2</v>
       </c>
       <c r="C39">
-        <v>86.7</v>
+        <v>76.599999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B40" s="5">
-        <v>22.614999999999998</v>
+        <v>18.2</v>
       </c>
       <c r="C40">
-        <v>98.4</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B41" s="5">
-        <v>13.135</v>
+        <v>22.614999999999998</v>
       </c>
       <c r="C41">
-        <v>155.30000000000001</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="5">
+        <v>13.135</v>
+      </c>
+      <c r="C42">
+        <v>155.30000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B43" s="5">
         <v>11.95</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>161.5</v>
       </c>
     </row>
@@ -5049,16 +5485,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F0FB5C-241B-4F12-996A-4FD098A2447D}">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:N216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="3" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5066,25 +5505,27 @@
         <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
         <f>52/1000</f>
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3">
         <v>4.8905000000000003</v>
@@ -5095,7 +5536,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>4.8905000000000003</v>
@@ -5106,7 +5547,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B5">
         <v>1.806</v>
@@ -5116,26 +5557,30 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="A6" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
+      <c r="A7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B8">
         <v>1.806</v>
@@ -5158,7 +5603,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B10">
         <v>2.6659999999999999</v>
@@ -5168,339 +5613,456 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="A11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
         <v>0.128</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <v>0.106</v>
+      <c r="A12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C12" s="5">
+        <f>85/1000</f>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13">
         <v>2.6659999999999999</v>
       </c>
       <c r="C13">
-        <f>85/1000</f>
-        <v>8.5000000000000006E-2</v>
+        <f>143/1000</f>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>2.6659999999999999</v>
       </c>
       <c r="C14">
-        <f>143/1000</f>
-        <v>0.14299999999999999</v>
+        <f>140/1000</f>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>2.6659999999999999</v>
       </c>
       <c r="C15">
-        <f>140/1000</f>
-        <v>0.14000000000000001</v>
+        <f>72/1000</f>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B16">
-        <v>2.6659999999999999</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C16">
-        <f>72/1000</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.6269999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="B17">
-        <v>6.3E-2</v>
+        <v>1.294</v>
       </c>
       <c r="C17">
-        <v>3.6269999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B18">
         <v>1.294</v>
       </c>
       <c r="C18">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3.1109999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20">
         <v>1.294</v>
       </c>
-      <c r="C19">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
-        <v>3.1109999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21">
-        <v>1.294</v>
-      </c>
-      <c r="C21">
+      <c r="C20">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="C24">
+      <c r="C23">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
         <f>508/1000</f>
         <v>0.50800000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26">
+      <c r="J24" s="7">
+        <v>4.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="C26">
+      <c r="C25">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
         <f>35/1000</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B28">
+      <c r="B27">
         <v>2.6659999999999999</v>
       </c>
-      <c r="C28">
+      <c r="C27">
         <f>21/1000</f>
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B28" s="5">
         <v>2.6659999999999999</v>
       </c>
-      <c r="C29">
+      <c r="C28">
         <f>29/1000</f>
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C29">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="B30" s="5">
-        <v>1.3</v>
+        <v>2.6659999999999999</v>
       </c>
       <c r="C30">
-        <v>3.6400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <f>28/1000</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5">
         <v>2.6659999999999999</v>
       </c>
       <c r="C31">
-        <f>28/1000</f>
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="5">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C32">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J31" s="3">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1.294</v>
+      </c>
+      <c r="C32">
+        <f>23/1000</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5.8040000000000003</v>
+      </c>
+      <c r="J32" s="3">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="B33" s="5">
         <v>1.294</v>
       </c>
       <c r="C33">
-        <f>23/1000</f>
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>263</v>
+        <v>0.122</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="3">
+        <f>6.8/2</f>
+        <v>3.4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="3">
+        <f>2.588/2</f>
         <v>1.294</v>
       </c>
-      <c r="C34">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3">
+      <c r="J34" s="3">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="H35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" s="3">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
         <f>289/1000</f>
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B38">
+      <c r="B37">
         <v>0.45350000000000001</v>
       </c>
-      <c r="C38">
+      <c r="C37">
         <f>613/1000</f>
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
         <f>274/1000</f>
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3">
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
         <f>194/1000</f>
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3">
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
         <f>431/1000</f>
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B42">
         <v>1.294</v>
@@ -5509,39 +6071,45 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3">
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
         <f>380/1000</f>
         <v>0.38</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3">
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
         <f>117/1000</f>
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3">
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
         <f>137/1000</f>
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B46">
         <v>0.39650000000000002</v>
@@ -5550,9 +6118,9 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B47">
         <v>1.294</v>
@@ -5561,9 +6129,9 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B48">
         <v>6.0000000000000001E-3</v>
@@ -5573,30 +6141,30 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49">
+      <c r="A49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="3">
         <v>0.9</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50">
+      <c r="A50" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="3">
         <v>5.8040000000000003</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51">
         <v>6.0000000000000001E-3</v>
@@ -5606,17 +6174,19 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3">
+      <c r="A52" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
         <v>2.5700000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B53">
         <v>0.9</v>
@@ -5626,20 +6196,24 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3">
+      <c r="A54" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3">
+      <c r="A55" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
         <v>0.47499999999999998</v>
       </c>
     </row>
@@ -5657,18 +6231,20 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3">
+      <c r="B57" s="5">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
         <f>48/1000</f>
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B58">
         <f>0.781/2</f>
@@ -5680,7 +6256,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59">
         <v>1.3</v>
@@ -5692,7 +6268,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B60">
         <f>(5.332+0.012)/2</f>
@@ -5703,1906 +6279,1867 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62">
+      <c r="A61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61">
         <f>3.6/2</f>
         <v>1.8</v>
       </c>
-      <c r="C62">
+      <c r="C61">
         <v>0.12118</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3">
-        <v>1.1100000000000001</v>
+      <c r="A63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63">
+        <f>(1.8+0.012)/2</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="C63">
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C64">
+        <f>242/1000</f>
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C65">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67">
+        <f>(0.126+0.012)/2</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C67">
+        <v>5.4300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68">
+        <f>(1.8+0.3)/2</f>
+        <v>1.05</v>
+      </c>
+      <c r="C68">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C69">
+        <v>3.6700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70">
+        <f>0.126/2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="C70">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C71">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="3">
+        <f>6.8/2</f>
+        <v>3.4</v>
+      </c>
+      <c r="C73" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C74">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C75">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C76">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C77">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C78">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C79">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>9.2899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81">
+        <f>(0.3+0.012)/2</f>
+        <v>0.156</v>
+      </c>
+      <c r="C81">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82">
+        <f>(0.126+0.012)/2</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C82">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B83">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C83">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84">
+        <f>5.332/2</f>
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C84">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C85">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C86">
+        <f>40/1000</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C87">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C89">
+        <f>745/1000</f>
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
+      <c r="C90" s="5">
+        <f>1000/1000</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" s="3">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C91" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0</v>
+      </c>
+      <c r="C92" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
+      <c r="C93" s="5">
+        <f>30/1000</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="5">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C94" s="5">
+        <f>373/1000</f>
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="5">
+        <f>(2.588+0.012)/2</f>
+        <v>1.3</v>
+      </c>
+      <c r="C95" s="5">
+        <f>187/1000</f>
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
+      <c r="C96" s="5">
+        <f>69/1000</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="5">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C97" s="5">
+        <f>60/1000</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+      <c r="C98" s="5">
+        <f>16/1000</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+      <c r="C99" s="5">
+        <f>1087/1000</f>
+        <v>1.087</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100" s="5">
+        <f>123/1000</f>
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="5">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C101" s="5">
+        <f>117/1000</f>
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
+      <c r="C102" s="5">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103">
+        <f>(3.6+0.012)/2</f>
+        <v>1.806</v>
+      </c>
+      <c r="C103">
+        <f>59/1000</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0</v>
+      </c>
+      <c r="C104" s="5">
+        <f>93/1000</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0</v>
+      </c>
+      <c r="C105" s="5">
+        <f>155/1000</f>
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0</v>
+      </c>
+      <c r="C106" s="5">
+        <f>64/1000</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C107">
+        <f>78/1000</f>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C108">
+        <f>139/1000</f>
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C109">
+        <f>104/1000</f>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C110">
+        <f>90/1000</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C111">
+        <f>50/1000</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C112">
+        <f>68/1000</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B113">
+        <f>(2.588+0.126)/2</f>
+        <v>1.357</v>
+      </c>
+      <c r="C113">
+        <v>6.7100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B114">
+        <v>1.357</v>
+      </c>
+      <c r="C114">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115">
+        <v>1.357</v>
+      </c>
+      <c r="C115">
+        <v>0.17069999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116">
+        <v>1.357</v>
+      </c>
+      <c r="C116">
+        <v>5.5100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B117">
+        <f>(0.781+0.126)/2</f>
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="C117">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C118">
+        <f>545/1000</f>
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
+      <c r="C119" s="5">
+        <f>341/1000</f>
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120">
+        <f>(5.332+0.012)/2</f>
+        <v>2.6719999999999997</v>
+      </c>
+      <c r="C120">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121">
+        <f>(4+0.012)/2</f>
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="C121">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B64">
+      <c r="B122">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C122">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C123">
+        <f>10/1000</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B124">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C124">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125">
+        <f>0.3/2</f>
+        <v>0.15</v>
+      </c>
+      <c r="C125">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0</v>
+      </c>
+      <c r="C126" s="5">
+        <f>72/1000</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127">
+        <f>5.332/2</f>
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C127">
+        <f>15/1000</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C128">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B129">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C129">
+        <f>8/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B130">
+        <f>0.126/2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="C130">
+        <f>15/1000</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" s="3">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C131" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B132">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C132">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B133">
         <f>(1.8+0.012)/2</f>
         <v>0.90600000000000003</v>
       </c>
-      <c r="C64">
-        <v>0.97199999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65">
+      <c r="C133">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B134">
+        <f>(0.126+0.012)/2</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C134">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C135">
+        <f>75/1000</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C136">
+        <f>103/1000</f>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B137">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C137">
+        <f>30/1000</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C138">
+        <f>37/1000</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C139">
+        <f>45/1000</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C140">
+        <f>45/1000</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="5">
+        <v>0</v>
+      </c>
+      <c r="C141" s="5">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0</v>
+      </c>
+      <c r="C142" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="5">
+        <v>0</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0</v>
+      </c>
+      <c r="C145" s="5">
+        <v>9.8320000000000005E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146">
+        <f>(0.126+0.012)/2</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C146">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B147">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C147">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B148">
         <f>2.588/2</f>
         <v>1.294</v>
       </c>
-      <c r="C65">
-        <f>242/1000</f>
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66">
+      <c r="C148">
+        <v>0.1158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B149">
+        <v>1.294</v>
+      </c>
+      <c r="C149">
+        <v>0.17230000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B150">
+        <v>1.294</v>
+      </c>
+      <c r="C150">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B151">
+        <v>1.294</v>
+      </c>
+      <c r="C151">
+        <v>0.1176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B152">
+        <f>(0.126+0.012)/2</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C152">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B153">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C153">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0</v>
+      </c>
+      <c r="C154" s="5">
+        <f>342/1000</f>
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155">
+        <f>1.806/2</f>
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156">
+        <f>13.6/2</f>
+        <v>6.8</v>
+      </c>
+      <c r="C156">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B157" s="5">
+        <v>0</v>
+      </c>
+      <c r="C157" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158">
         <f>0.012/2</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C66">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3">
-        <v>5.5199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68">
-        <f>(0.126+0.012)/2</f>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C68">
-        <v>5.4300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B69">
-        <f>(1.8+0.3)/2</f>
-        <v>1.05</v>
-      </c>
-      <c r="C69">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B70">
+      <c r="C158">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B159">
         <f>1.8/2</f>
         <v>0.9</v>
       </c>
-      <c r="C70">
-        <v>3.6700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B71">
+      <c r="C159">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160">
+        <f>0.781/2</f>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C160">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B161">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C161">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B162">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C162">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B163">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C163">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B164">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C164">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C165">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B166" s="5">
+        <v>0</v>
+      </c>
+      <c r="C166" s="5">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B167" s="5">
+        <v>0</v>
+      </c>
+      <c r="C167" s="5">
+        <f>105/1000</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B168" s="5">
+        <v>0</v>
+      </c>
+      <c r="C168" s="5">
+        <f>49/1000</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B169">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C169">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B170">
+        <v>1.294</v>
+      </c>
+      <c r="C170">
+        <f>40/1000</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B171" s="5">
+        <v>0</v>
+      </c>
+      <c r="C171" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B172">
+        <v>1.294</v>
+      </c>
+      <c r="C172">
+        <f>25/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B173">
+        <v>1.294</v>
+      </c>
+      <c r="C173">
+        <f>59/1000</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B174">
+        <v>1.294</v>
+      </c>
+      <c r="C174">
+        <f>8/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B175">
+        <v>1.294</v>
+      </c>
+      <c r="C175">
+        <f>39/1000</f>
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B176">
+        <v>1.294</v>
+      </c>
+      <c r="C176">
+        <f>71/1000</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B177">
+        <v>1.294</v>
+      </c>
+      <c r="C177">
+        <f>105/1000</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B178">
+        <v>1.294</v>
+      </c>
+      <c r="C178">
+        <f>15/1000</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B179">
+        <v>1.294</v>
+      </c>
+      <c r="C179">
+        <f>74/1000</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B180">
+        <v>1.294</v>
+      </c>
+      <c r="C180">
+        <f>19/1000</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B181">
+        <v>1.294</v>
+      </c>
+      <c r="C181">
+        <f>11/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B182">
+        <v>1.294</v>
+      </c>
+      <c r="C182">
+        <f>78/1000</f>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183">
+        <f>3.6/2</f>
+        <v>1.8</v>
+      </c>
+      <c r="C183">
+        <f>217/1000</f>
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B184">
+        <v>1.8</v>
+      </c>
+      <c r="C184">
+        <f>154/1000</f>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B185">
+        <v>1.8</v>
+      </c>
+      <c r="C185">
+        <f>49/1000</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B186">
+        <v>1.8</v>
+      </c>
+      <c r="C186">
+        <f>110/1000</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B187">
+        <v>1.8</v>
+      </c>
+      <c r="C187">
+        <f>140/1000</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B188">
+        <v>1.8</v>
+      </c>
+      <c r="C188">
+        <f>170/1000</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B189">
+        <v>1.8</v>
+      </c>
+      <c r="C189">
+        <f>110/1000</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B190">
+        <v>1.8</v>
+      </c>
+      <c r="C190">
+        <f>163/1000</f>
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B191">
+        <f>0.012/2</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C191">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B192">
         <f>0.126/2</f>
         <v>6.3E-2</v>
       </c>
-      <c r="C71">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72">
+      <c r="C192">
+        <f>134/1000</f>
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B193">
+        <v>1.8</v>
+      </c>
+      <c r="C193">
+        <f>158/1000</f>
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B194">
+        <v>1.8</v>
+      </c>
+      <c r="C194">
+        <f>93/1000</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B195">
+        <v>1.8</v>
+      </c>
+      <c r="C195">
+        <f>89/1000</f>
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B196">
+        <v>1.8</v>
+      </c>
+      <c r="C196">
+        <f>243/1000</f>
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B197">
+        <v>1.8</v>
+      </c>
+      <c r="C197">
+        <f>207/1000</f>
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B198">
+        <f>5.332/2</f>
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C198">
+        <f>55/1000</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B199">
+        <f>2.588/2</f>
+        <v>1.294</v>
+      </c>
+      <c r="C199">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B200">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C200">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B201" s="5">
+        <v>0</v>
+      </c>
+      <c r="C201" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202">
+        <f>(0.3+0.012)/2</f>
+        <v>0.156</v>
+      </c>
+      <c r="C202">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B203">
+        <f>(0.781+0.012)/2</f>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C203">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B204">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="C204">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B205" s="5">
+        <v>0</v>
+      </c>
+      <c r="C205" s="5">
+        <f>49/1000</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B206" s="5">
+        <v>0</v>
+      </c>
+      <c r="C206" s="5">
+        <f>400/1000</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B207">
         <f>0.781/2</f>
         <v>0.39050000000000001</v>
       </c>
-      <c r="C72">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B73">
+      <c r="C207">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B208">
+        <f>1.8/2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C208">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B209" s="5">
+        <f>(2.588+0.012)/2</f>
+        <v>1.3</v>
+      </c>
+      <c r="C209" s="5">
+        <f>89/1000</f>
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B210">
         <f>0.012/2</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C73">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74">
-        <f>6.8/2</f>
-        <v>3.4</v>
-      </c>
-      <c r="C74">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B75">
-        <f>(0.781+0.012)/2</f>
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C75">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B76">
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C76">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B77">
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C77">
-        <v>1.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78">
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C78">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79">
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C79">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B82">
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C82">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3">
-        <v>9.2899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B85">
+      <c r="C210">
+        <f>40/1000</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B211">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C211">
+        <f>879/1000</f>
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B212">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C212">
+        <f>820/1000</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B213" s="5">
+        <v>0</v>
+      </c>
+      <c r="C213" s="5">
+        <f>950/1000</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B214" s="5">
+        <v>0</v>
+      </c>
+      <c r="C214" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B215">
         <f>(0.3+0.012)/2</f>
         <v>0.156</v>
       </c>
-      <c r="C85">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B86">
-        <f>(0.126+0.012)/2</f>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C86">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B87">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C87">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B88">
-        <f>5.332/2</f>
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C88">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B89">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C89">
-        <v>2.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B90">
-        <f>2.588/2</f>
-        <v>1.294</v>
-      </c>
-      <c r="C90">
-        <f>40/1000</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B91">
-        <f>0.012/2</f>
+      <c r="C215">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B216">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C91">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3">
-        <v>5.45E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B93">
-        <f>0.012/2</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C93">
-        <f>745/1000</f>
-        <v>0.745</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3">
-        <f>1000/1000</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B95">
-        <f>2.588/2</f>
-        <v>1.294</v>
-      </c>
-      <c r="C95">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3">
-        <f>30/1000</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B98">
-        <f>(0.781+0.012)/2</f>
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C98">
-        <f>373/1000</f>
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B99">
-        <f>(2.588+0.012)/2</f>
-        <v>1.3</v>
-      </c>
-      <c r="C99">
-        <f>187/1000</f>
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3">
-        <f>69/1000</f>
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B101">
-        <f>0.012/2</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C101">
-        <f>60/1000</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3">
-        <f>16/1000</f>
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3">
-        <f>1087/1000</f>
-        <v>1.087</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3">
-        <f>123/1000</f>
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106">
-        <f>(0.781+0.012)/2</f>
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C106">
-        <f>117/1000</f>
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3">
-        <f>70/1000</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B108">
-        <f>(3.6+0.012)/2</f>
-        <v>1.806</v>
-      </c>
-      <c r="C108">
-        <f>59/1000</f>
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3">
-        <f>93/1000</f>
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3">
-        <f>155/1000</f>
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3">
-        <f>64/1000</f>
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3">
-        <f>18/1000</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B113">
-        <f>0.012/2</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C113">
-        <f>78/1000</f>
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C114">
-        <f>139/1000</f>
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B115">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C115">
-        <f>104/1000</f>
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B116">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C116">
-        <f>90/1000</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B117">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C117">
-        <f>50/1000</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B118">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C118">
-        <f>68/1000</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B119">
-        <f>(2.588+0.126)/2</f>
-        <v>1.357</v>
-      </c>
-      <c r="C119">
-        <v>6.7100000000000007E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B120">
-        <v>1.357</v>
-      </c>
-      <c r="C120">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B121">
-        <v>1.357</v>
-      </c>
-      <c r="C121">
-        <v>0.17069999999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B122">
-        <v>1.357</v>
-      </c>
-      <c r="C122">
-        <v>5.5100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B123">
-        <f>(0.781+0.126)/2</f>
-        <v>0.45350000000000001</v>
-      </c>
-      <c r="C123">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B124">
-        <f>0.012/2</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C124">
-        <f>545/1000</f>
-        <v>0.54500000000000004</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3">
-        <f>341/1000</f>
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B126">
-        <f>(5.332+0.012)/2</f>
-        <v>2.6719999999999997</v>
-      </c>
-      <c r="C126">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B127">
-        <f>(4+0.012)/2</f>
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="C127">
-        <v>0.18099999999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B128">
-        <f>1.8/2</f>
-        <v>0.9</v>
-      </c>
-      <c r="C128">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B129">
-        <f>2.588/2</f>
-        <v>1.294</v>
-      </c>
-      <c r="C129">
-        <f>10/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B130">
-        <f>0.781/2</f>
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="C130">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B131">
-        <f>0.3/2</f>
-        <v>0.15</v>
-      </c>
-      <c r="C131">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3">
-        <f>72/1000</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B133">
-        <f>5.332/2</f>
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C133">
-        <f>15/1000</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B134">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C134">
-        <v>1.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B135">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C135">
-        <f>8/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B136">
-        <f>0.126/2</f>
-        <v>6.3E-2</v>
-      </c>
-      <c r="C136">
-        <f>15/1000</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B137">
-        <f>0.781/2</f>
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="C137">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B139">
-        <f>1.8/2</f>
-        <v>0.9</v>
-      </c>
-      <c r="C139">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B140">
-        <f>(1.8+0.012)/2</f>
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="C140">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B141">
-        <f>(0.126+0.012)/2</f>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C141">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B142">
-        <f>(0.781+0.012)/2</f>
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C142">
-        <f>75/1000</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B143">
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C143">
-        <f>103/1000</f>
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B144">
-        <f>0.012/2</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C144">
-        <f>30/1000</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B145">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C145">
-        <f>37/1000</f>
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B146">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C146">
+      <c r="C216">
         <f>45/1000</f>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B147">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C147">
-        <f>45/1000</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3">
-        <v>9.8320000000000005E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B153">
-        <f>(0.126+0.012)/2</f>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C153">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B154">
-        <f>1.8/2</f>
-        <v>0.9</v>
-      </c>
-      <c r="C154">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3">
-        <v>2.1899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B156">
-        <f>2.588/2</f>
-        <v>1.294</v>
-      </c>
-      <c r="C156">
-        <v>0.1158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B157">
-        <v>1.294</v>
-      </c>
-      <c r="C157">
-        <v>0.17230000000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B158">
-        <v>1.294</v>
-      </c>
-      <c r="C158">
-        <v>0.1023</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B159">
-        <v>1.294</v>
-      </c>
-      <c r="C159">
-        <v>0.1176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B160">
-        <f>(0.126+0.012)/2</f>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C160">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B161">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C161">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3">
-        <f>342/1000</f>
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B163">
-        <f>1.806/2</f>
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="C163">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B164">
-        <f>13.6/2</f>
-        <v>6.8</v>
-      </c>
-      <c r="C164">
-        <v>5.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B166">
-        <f>0.012/2</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C166">
-        <v>2.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B167">
-        <f>1.8/2</f>
-        <v>0.9</v>
-      </c>
-      <c r="C167">
-        <v>2.98E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B168">
-        <f>0.781/2</f>
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="C168">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B169">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="C169">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B170">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="C170">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B171">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="C171">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B172">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="C172">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B173">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="C173">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3">
-        <f>105/1000</f>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3">
-        <f>49/1000</f>
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B177">
-        <f>2.588/2</f>
-        <v>1.294</v>
-      </c>
-      <c r="C177">
-        <v>2.18E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B178">
-        <v>1.294</v>
-      </c>
-      <c r="C178">
-        <f>40/1000</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B180">
-        <v>1.294</v>
-      </c>
-      <c r="C180">
-        <f>25/1000</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B181">
-        <v>1.294</v>
-      </c>
-      <c r="C181">
-        <f>59/1000</f>
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B182">
-        <v>1.294</v>
-      </c>
-      <c r="C182">
-        <f>8/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B183">
-        <v>1.294</v>
-      </c>
-      <c r="C183">
-        <f>39/1000</f>
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B184">
-        <v>1.294</v>
-      </c>
-      <c r="C184">
-        <f>71/1000</f>
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B185">
-        <v>1.294</v>
-      </c>
-      <c r="C185">
-        <f>105/1000</f>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B186">
-        <v>1.294</v>
-      </c>
-      <c r="C186">
-        <f>15/1000</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B187">
-        <v>1.294</v>
-      </c>
-      <c r="C187">
-        <f>74/1000</f>
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B188">
-        <v>1.294</v>
-      </c>
-      <c r="C188">
-        <f>19/1000</f>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B189">
-        <v>1.294</v>
-      </c>
-      <c r="C189">
-        <f>11/1000</f>
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B190">
-        <v>1.294</v>
-      </c>
-      <c r="C190">
-        <f>78/1000</f>
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B191">
-        <f>3.6/2</f>
-        <v>1.8</v>
-      </c>
-      <c r="C191">
-        <f>217/1000</f>
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B192">
-        <v>1.8</v>
-      </c>
-      <c r="C192">
-        <f>154/1000</f>
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B193">
-        <v>1.8</v>
-      </c>
-      <c r="C193">
-        <f>49/1000</f>
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B194">
-        <v>1.8</v>
-      </c>
-      <c r="C194">
-        <f>110/1000</f>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B195">
-        <v>1.8</v>
-      </c>
-      <c r="C195">
-        <f>140/1000</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B196">
-        <v>1.8</v>
-      </c>
-      <c r="C196">
-        <f>170/1000</f>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B197">
-        <v>1.8</v>
-      </c>
-      <c r="C197">
-        <f>110/1000</f>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B198">
-        <v>1.8</v>
-      </c>
-      <c r="C198">
-        <f>163/1000</f>
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B199">
-        <f>0.012/2</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C199">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B200">
-        <f>0.126/2</f>
-        <v>6.3E-2</v>
-      </c>
-      <c r="C200">
-        <f>134/1000</f>
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B201">
-        <v>1.8</v>
-      </c>
-      <c r="C201">
-        <f>158/1000</f>
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B202">
-        <v>1.8</v>
-      </c>
-      <c r="C202">
-        <f>93/1000</f>
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B203">
-        <v>1.8</v>
-      </c>
-      <c r="C203">
-        <f>89/1000</f>
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B204">
-        <v>1.8</v>
-      </c>
-      <c r="C204">
-        <f>243/1000</f>
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B205">
-        <v>1.8</v>
-      </c>
-      <c r="C205">
-        <f>207/1000</f>
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B206">
-        <f>5.332/2</f>
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C206">
-        <f>55/1000</f>
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B208">
-        <f>2.588/2</f>
-        <v>1.294</v>
-      </c>
-      <c r="C208">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B209">
-        <f>(0.781+0.012)/2</f>
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C209">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3">
-        <v>5.7700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B212">
-        <f>(0.3+0.012)/2</f>
-        <v>0.156</v>
-      </c>
-      <c r="C212">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B213">
-        <f>(0.781+0.012)/2</f>
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C213">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B214">
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="C214">
-        <v>0.95799999999999996</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3">
-        <f>49/1000</f>
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3">
-        <f>400/1000</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B217">
-        <f>0.781/2</f>
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="C217">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B218">
-        <f>1.8/2</f>
-        <v>0.9</v>
-      </c>
-      <c r="C218">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B220" s="5">
-        <f>(2.588+0.012)/2</f>
-        <v>1.3</v>
-      </c>
-      <c r="C220" s="5">
-        <f>89/1000</f>
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3">
-        <v>8.6790000000000006E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B222">
-        <f>0.012/2</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C222">
-        <f>40/1000</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B223">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C223">
-        <f>879/1000</f>
-        <v>0.879</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B224">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C224">
-        <f>820/1000</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3">
-        <f>950/1000</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B227">
-        <f>(0.3+0.012)/2</f>
-        <v>0.156</v>
-      </c>
-      <c r="C227">
-        <v>1.9300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B228">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C228">
-        <f>45/1000</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C216">
+    <sortCondition ref="A36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>